--- a/headachelong.xlsx
+++ b/headachelong.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hprob5/Desktop/ANOVA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hprob5/Documents/GitHub/MA421_FinalExam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DBBB756-B335-6D45-A209-25817FA06F8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C83B68B4-8B37-CE41-90E9-5F54D05C2BA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FCF7224C-F40C-A247-BD84-1DA77F89C778}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{FCF7224C-F40C-A247-BD84-1DA77F89C778}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49:D73"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1266,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49" s="1">
         <v>78.59</v>
